--- a/Skill Portal.xlsx
+++ b/Skill Portal.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18326"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
   <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{AD7192C8-02C0-40FB-B3A0-6B35D87472CF}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" tabRatio="897" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8835" tabRatio="897" firstSheet="8" activeTab="19" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Skills" sheetId="2" r:id="rId1"/>
@@ -26,6 +27,7 @@
     <sheet name="SOAP" sheetId="17" r:id="rId17"/>
     <sheet name="Rest" sheetId="18" r:id="rId18"/>
     <sheet name="SOA" sheetId="19" r:id="rId19"/>
+    <sheet name="Others" sheetId="21" r:id="rId20"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -37,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="211">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -69,9 +71,6 @@
     <t>Spring Boot</t>
   </si>
   <si>
-    <t>Spring Web</t>
-  </si>
-  <si>
     <t>Spring Data&amp;Integration</t>
   </si>
   <si>
@@ -90,9 +89,6 @@
     <t>Maven</t>
   </si>
   <si>
-    <t>Junit</t>
-  </si>
-  <si>
     <t>Database &amp; SQL</t>
   </si>
   <si>
@@ -124,12 +120,6 @@
   </si>
   <si>
     <t>Spring IOC</t>
-  </si>
-  <si>
-    <t>Inversion of Control (IoC)</t>
-  </si>
-  <si>
-    <t>Dependency injection (DI)</t>
   </si>
   <si>
     <t>Bean Container</t>
@@ -329,36 +319,421 @@
 </t>
   </si>
   <si>
-    <t>The IoC container is responsible to instantiate, configure and assemble the objects. The IoC container gets informations from the bean XML config file and works accordingly. 
+    <t>BeanFactory Vs ApplicationContext</t>
+  </si>
+  <si>
+    <t>The org.springframework.beans.factory.BeanFactory and the org.springframework.context.ApplicationContext interfaces acts as the IoC container. 
+The ApplicationContext interface is built on top of the BeanFactory interface. It adds some extra functionality than BeanFactory such as simple integration with Spring's AOP, message resource handling (for I18N), event propagation, application layer specific context (e.g. WebApplicationContext) for web application. So it is better to use ApplicationContext than BeanFactory.</t>
+  </si>
+  <si>
+    <t>Resource resource=new ClassPathResource("applicationContext.xml");  
+BeanFactory factory=new XmlBeanFactory(resource);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ApplicationContext context =  new ClassPathXmlApplicationContext("applicationContext.xml");  </t>
+  </si>
+  <si>
+    <t>The ClassPathXmlApplicationContext class is the implementation class of ApplicationContext interface. 
+We need to instantiate the ClassPathXmlApplicationContext class to use the ApplicationContext</t>
+  </si>
+  <si>
+    <t>The XmlBeanFactory is the implementation class for the BeanFactory interface. 
+To use the BeanFactory, we need to create the instance of XmlBeanFactory class.</t>
+  </si>
+  <si>
+    <t>Spring Batch &amp; Scheduler</t>
+  </si>
+  <si>
+    <t>Inversion of Control (IoC) refers to a programming style where a framework or runtime, controls the program flow. Inversion of control means we are changing the control from normal way. It works on Dependency Inversion Principle. ... DI is a great way to reduce tight coupling between software components.</t>
+  </si>
+  <si>
+    <t>Inversion of Control (IOC) and Dependency Injection (DI) are used interchangeably. ... By DI, the responsibility of creating objects is shifted from our application code to the Spring container; this phenomenon is called IOC.Dependency Injection can be done by setter injection or constructor injection</t>
+  </si>
+  <si>
+    <t>Inversion of Control (IoC) &amp; Dependency injection (DI)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">The IoC container is responsible to instantiate, configure and assemble the objects. The IoC container gets informations from the bean XML config file and works accordingly. 
 The main tasks performed by IoC container are:
 Step1 : to instantiate the application class
 Step2 :to configure the object
 Step3 :to assemble the dependencies between the objects.
-There are two types of IoC containers. They are:
-BeanFactory
-ApplicationContext</t>
-  </si>
-  <si>
-    <t>BeanFactory Vs ApplicationContext</t>
-  </si>
-  <si>
-    <t>The org.springframework.beans.factory.BeanFactory and the org.springframework.context.ApplicationContext interfaces acts as the IoC container. 
-The ApplicationContext interface is built on top of the BeanFactory interface. It adds some extra functionality than BeanFactory such as simple integration with Spring's AOP, message resource handling (for I18N), event propagation, application layer specific context (e.g. WebApplicationContext) for web application. So it is better to use ApplicationContext than BeanFactory.</t>
-  </si>
-  <si>
-    <t>Resource resource=new ClassPathResource("applicationContext.xml");  
-BeanFactory factory=new XmlBeanFactory(resource);</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ApplicationContext context =  new ClassPathXmlApplicationContext("applicationContext.xml");  </t>
-  </si>
-  <si>
-    <t>The ClassPathXmlApplicationContext class is the implementation class of ApplicationContext interface. 
-We need to instantiate the ClassPathXmlApplicationContext class to use the ApplicationContext</t>
-  </si>
-  <si>
-    <t>The XmlBeanFactory is the implementation class for the BeanFactory interface. 
-To use the BeanFactory, we need to create the instance of XmlBeanFactory class.</t>
+There are two types of IoC containers.They are:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1. BeanFactory
+2. ApplicationContext</t>
+    </r>
+  </si>
+  <si>
+    <t>Spring Web(MVC)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Junit </t>
+  </si>
+  <si>
+    <t>JIRA, Jenkin, Servicenow</t>
+  </si>
+  <si>
+    <t>Important features and advantages of Spring Framework?</t>
+  </si>
+  <si>
+    <t>Spring Framework is built on top of two design concepts – Dependency Injection and Aspect Oriented Programming.
+Some of the features of spring framework are:
+Lightweight and very little overhead of using framework for our development.
+Dependency Injection or Inversion of Control to write components that are independent of each other, spring container takes care of wiring them together to achieve our work.
+Spring IoC container manages Spring Bean life cycle and project specific configurations such as JNDI lookup.
+Spring MVC framework can be used to create web applications as well as restful web services capable of returning XML as well as JSON response.
+Support for transaction management, JDBC operations, File uploading, Exception Handling etc with very little configurations, either by using annotations or by spring bean configuration file.
+Some of the advantages of using Spring Framework are:
+Reducing direct dependencies between different components of the application, usually Spring IoC container is responsible for initializing resources or beans and inject them as dependencies.
+Writing unit test cases are easy in Spring framework because our business logic doesn’t have direct dependencies with actual resource implementation classes. We can easily write a test configuration and inject our mock beans for testing purposes.
+Reduces the amount of boiler-plate code, such as initializing objects, open/close resources. I like JdbcTemplate class a lot because it helps us in removing all the boiler-plate code that comes with JDBC programming.
+Spring framework is divided into several modules, it helps us in keeping our application lightweight. For example, if we don’t need Spring transaction management features, we don’t need to add that dependency in our project.
+Spring framework support most of the Java EE features and even much more. It’s always on top of the new technologies, for example there is a Spring project for Android to help us write better code for native android applications. This makes spring framework a complete package and we don’t need to look after different framework for different requirements.</t>
+  </si>
+  <si>
+    <t>What is Spring IoC Container?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Inversion of Control (IoC) is the mechanism to achieve loose-coupling between Objects dependencies.
+To achieve loose coupling and dynamic binding of the objects at runtime, the objects define their dependencies that are being injected by other assembler objects. 
+Spring IoC container is the program that injects dependencies into an object and make it ready for our use.
+Spring Framework IoC container classes are part of org.springframework.beans and org.springframework.context packages and provides us different ways to decouple the object dependencies.
+Some of the useful ApplicationContext implementations that we use are;
+AnnotationConfigApplicationContext: For standalone java applications using annotations based configuration.
+ClassPathXmlApplicationContext: For standalone java applications using XML based configuration.
+FileSystemXmlApplicationContext: Similar to ClassPathXmlApplicationContext except that the xml configuration file can be loaded from anywhere in the file system.
+AnnotationConfigWebApplicationContext and XmlWebApplicationContext for web applications.
+</t>
+  </si>
+  <si>
+    <t>Spring Modules?</t>
+  </si>
+  <si>
+    <t>Spring Context – for dependency injection.
+Spring AOP – for aspect oriented programming.
+Spring DAO – for database operations using DAO pattern
+Spring JDBC – for JDBC and DataSource support.
+Spring ORM – for ORM tools support such as Hibernate
+Spring Web Module – for creating web applications.
+Spring MVC – Model-View-Controller implementation for creating web applications, web services etc.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> DI in Spring Framework?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+We can use Spring XML based as well as Annotation based configuration to implement DI in spring applications. For better understanding, please read Spring Dependency Injection example where you can learn both the ways with JUnit test case. The post also contains sample project zip file, that you can download and play around to learn more.</t>
+  </si>
+  <si>
+    <t>why spring singleton is not thread safe?</t>
+  </si>
+  <si>
+    <t>****So eventually thread safety depends on the code and the code only. And this is the reason why Spring beans are not thread safe per se. Spring singleton beans are NOT thread-safe just because Spring instantiates them. ... Spring just manage the life cycle of singleton bean and maintains single instance of object.Singleton spring beans has no relation with thread safety.                                                                                                                                                                                                                                                            **** Spring container only manages life-cycle of objects and guaranteed that only one object in spring container. so If an Non thread safe object is injected then obviously it is not thread safe. To make it thread safe you have to handle it by coding</t>
+  </si>
+  <si>
+    <t>What is the difference between spring Singleton and Java Singleton?</t>
+  </si>
+  <si>
+    <t>A Java singleton, per the design pattern where instantiation is restricted to one, usually per JVM class loader by the code. ... You may have many instances of that class in your application, but only one will be created for that bean. You may even have multiple beans of the same class all declared as singleton.</t>
+  </si>
+  <si>
+    <t>Why Spring Is Singleton?</t>
+  </si>
+  <si>
+    <t>Spring Singleton is not GoF Singleton. ... In Spring, a singleton bean is limited to one instance per container. However, in many situations, there may be many Spring containers running in the JVM. Therefore, there may be more than one instance of the “singleton” object running, but only one per Spring context</t>
+  </si>
+  <si>
+    <t>When should we use prototype in spring?</t>
+  </si>
+  <si>
+    <t>If scope is set to prototype, the Spring IoC container creates new bean instance of the object every time a request for that specific bean is made. As a rule, use the prototype scope for all state-full beans and the singleton scope for stateless beans</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Questions: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. What are the Bean Container Default Classpath ? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2. Different why of creating the Bean Container ? </t>
+  </si>
+  <si>
+    <t>3. Bean name &amp; id shouldn’t be duplicate ?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Exception in thread "main" org.springframework.beans.factory.parsing.BeanDefinitionParsingException: Configuration problem: Bean name 'test' is already used in this &lt;beans&gt; element
+Offending resource: class path resource [SpringBeans.xml]
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WARNING: Exception encountered during context initialization - cancelling refresh attempt: org.springframework.beans.factory.BeanCreationException: Error creating bean with name 'test1' defined in class path resource [SpringBeans.xml]: Error setting property values; nested exception is org.springframework.beans.NotWritablePropertyException: Invalid property 'name' of bean class [ioc.staticfactory.Test]: Bean property 'name' is not writable or has an invalid setter method. Does the parameter type of the setter match the return type of the getter?
+Exception in thread "main" org.springframework.beans.factory.BeanCreationException: Error creating bean with name 'test1' defined in class path resource [SpringBeans.xml]: Error setting property values; nested exception is org.springframework.beans.NotWritablePropertyException: Invalid property 'name' of bean class [ioc.staticfactory.Test]: Bean property 'name' is not writable or has an invalid setter method. Does the parameter type of the setter match the return type of the getter?
+ at org.springframework.beans.factory.support.AbstractAutowireCapableBeanFactory.applyPropertyValues(AbstractAutowireCapableBeanFactory.java:1684)
+</t>
+  </si>
+  <si>
+    <t>Sathya</t>
+  </si>
+  <si>
+    <t>Praveen</t>
+  </si>
+  <si>
+    <t>Ragu</t>
+  </si>
+  <si>
+    <t>Username</t>
+  </si>
+  <si>
+    <t>postgres</t>
+  </si>
+  <si>
+    <t>Password</t>
+  </si>
+  <si>
+    <t>inforoot</t>
+  </si>
+  <si>
+    <t>Intelji Shortcuts</t>
+  </si>
+  <si>
+    <t>ctrl+h</t>
+  </si>
+  <si>
+    <t>show the type hierarchy</t>
+  </si>
+  <si>
+    <t>ctrl+alt+F7</t>
+  </si>
+  <si>
+    <t>find usages</t>
+  </si>
+  <si>
+    <t>ctrl+f7</t>
+  </si>
+  <si>
+    <t>finds the usages in the same file</t>
+  </si>
+  <si>
+    <t>shift+F6</t>
+  </si>
+  <si>
+    <t>rename</t>
+  </si>
+  <si>
+    <t>ctrl+alt+o</t>
+  </si>
+  <si>
+    <t>organize imports</t>
+  </si>
+  <si>
+    <t>Eclipse</t>
+  </si>
+  <si>
+    <t>IntelliJ IDEA</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>F4</t>
+  </si>
+  <si>
+    <t>ctrl+alt+g</t>
+  </si>
+  <si>
+    <t>ctrl+shift+u</t>
+  </si>
+  <si>
+    <t>alt+shift+r</t>
+  </si>
+  <si>
+    <t>ctrl+shift+r</t>
+  </si>
+  <si>
+    <t>ctrl+shift+N</t>
+  </si>
+  <si>
+    <t>find file / open resource</t>
+  </si>
+  <si>
+    <t>ctrl+shift+x, j</t>
+  </si>
+  <si>
+    <t>ctrl+shift+F10</t>
+  </si>
+  <si>
+    <t>run (java program)</t>
+  </si>
+  <si>
+    <t>ctrl+shift+o</t>
+  </si>
+  <si>
+    <t>ctrl+o</t>
+  </si>
+  <si>
+    <t>ctrl+F12</t>
+  </si>
+  <si>
+    <t>show current file structure / outline</t>
+  </si>
+  <si>
+    <t>ctrl+shift+m</t>
+  </si>
+  <si>
+    <t>ctrl+alt+V</t>
+  </si>
+  <si>
+    <t>create local variable refactoring</t>
+  </si>
+  <si>
+    <t>syso ctrl+space</t>
+  </si>
+  <si>
+    <t>sout ctrj+j</t>
+  </si>
+  <si>
+    <t>System.out.println(“”)</t>
+  </si>
+  <si>
+    <t>alt + up/down</t>
+  </si>
+  <si>
+    <t>ctrl + shift + up/down</t>
+  </si>
+  <si>
+    <t>move lines</t>
+  </si>
+  <si>
+    <t>ctrl + d</t>
+  </si>
+  <si>
+    <t>ctrl + y</t>
+  </si>
+  <si>
+    <t>delete current line</t>
+  </si>
+  <si>
+    <t>???</t>
+  </si>
+  <si>
+    <t>alt + h</t>
+  </si>
+  <si>
+    <t>show subversion history</t>
+  </si>
+  <si>
+    <t>ctrl + h</t>
+  </si>
+  <si>
+    <t>ctrl + shift + f</t>
+  </si>
+  <si>
+    <t>search (find in path)</t>
+  </si>
+  <si>
+    <t>“semi” set in window-&gt; preferences</t>
+  </si>
+  <si>
+    <t>ctrl + shift + enter</t>
+  </si>
+  <si>
+    <t>if I want to add the semi-colon at the end of a statement</t>
+  </si>
+  <si>
+    <t>ctrl + 1 or ctrl + shift + l</t>
+  </si>
+  <si>
+    <t>ctrl + alt + v</t>
+  </si>
+  <si>
+    <t>introduce local variable</t>
+  </si>
+  <si>
+    <t>alt + shift + s</t>
+  </si>
+  <si>
+    <t>alt + insert</t>
+  </si>
+  <si>
+    <t>generate getters / setters</t>
+  </si>
+  <si>
+    <t>ctrl + alt + l</t>
+  </si>
+  <si>
+    <t>format code</t>
+  </si>
+  <si>
+    <t>ctrl + shift + z</t>
+  </si>
+  <si>
+    <t>redo</t>
+  </si>
+  <si>
+    <t>ctrl + shift + c</t>
+  </si>
+  <si>
+    <t>ctrl + /</t>
+  </si>
+  <si>
+    <t>comment out lines (my own IDEA shortcut definition for comment/uncomment on german keyboard layout on laptop: ctrl + shift + y)</t>
+  </si>
+  <si>
+    <t>ctrl + alt + h</t>
+  </si>
+  <si>
+    <t>ctrl + alt + h (same!)</t>
+  </si>
+  <si>
+    <t>show call hierarchy</t>
+  </si>
+  <si>
+    <t>none ?</t>
+  </si>
+  <si>
+    <t>ctrl + alt + f7</t>
+  </si>
+  <si>
+    <t>to jump to one of the callers of a method</t>
+  </si>
+  <si>
+    <t>ctrl + shift + i</t>
+  </si>
+  <si>
+    <t>alt + f8</t>
+  </si>
+  <si>
+    <t>evaluate expression (in debugger)</t>
+  </si>
+  <si>
+    <t>F3</t>
+  </si>
+  <si>
+    <t>ctrl + b</t>
+  </si>
+  <si>
+    <t>go to declaration (e.g. go to method)</t>
+  </si>
+  <si>
+    <t>ctrl + l</t>
+  </si>
+  <si>
+    <t>ctrl + g</t>
+  </si>
+  <si>
+    <t>go to line</t>
   </si>
 </sst>
 </file>
@@ -368,7 +743,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -400,8 +775,30 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -414,8 +811,32 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -468,13 +889,28 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -541,6 +977,23 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -826,8 +1279,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C88A62D-9361-4F2B-B730-1C5717340DAC}">
   <dimension ref="A1:H30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -855,25 +1308,25 @@
         <v>4</v>
       </c>
       <c r="E1" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="8">
+      <c r="A2" s="29">
         <v>1</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="5"/>
-      <c r="D2" s="8">
+      <c r="C2" s="30"/>
+      <c r="D2" s="29">
         <v>5</v>
       </c>
-      <c r="E2" s="8">
+      <c r="E2" s="29">
         <v>8</v>
       </c>
       <c r="G2" s="19" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="H2" s="20">
         <v>43433</v>
@@ -893,64 +1346,73 @@
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="8">
+      <c r="A4" s="29">
         <v>3</v>
       </c>
-      <c r="B4" s="5"/>
-      <c r="C4" s="5" t="s">
+      <c r="B4" s="30"/>
+      <c r="C4" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="8">
-        <v>4</v>
-      </c>
-      <c r="E4" s="8"/>
+      <c r="D4" s="29">
+        <v>5</v>
+      </c>
+      <c r="E4" s="29"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="8">
         <v>4</v>
       </c>
       <c r="B5" s="5"/>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="33" t="s">
         <v>8</v>
       </c>
       <c r="D5" s="8">
         <v>2</v>
       </c>
       <c r="E5" s="8"/>
+      <c r="G5" s="3" t="s">
+        <v>127</v>
+      </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="8">
         <v>5</v>
       </c>
       <c r="B6" s="5"/>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="35" t="s">
         <v>9</v>
       </c>
       <c r="D6" s="8">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E6" s="8"/>
+      <c r="G6" s="33" t="s">
+        <v>128</v>
+      </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="8">
         <v>6</v>
       </c>
       <c r="B7" s="5"/>
-      <c r="C7" s="5" t="s">
-        <v>10</v>
+      <c r="C7" s="33" t="s">
+        <v>102</v>
       </c>
       <c r="D7" s="8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E7" s="8"/>
+      <c r="G7" s="34" t="s">
+        <v>129</v>
+      </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="8">
         <v>7</v>
       </c>
       <c r="B8" s="5"/>
-      <c r="C8" s="5" t="s">
-        <v>11</v>
+      <c r="C8" s="33" t="s">
+        <v>10</v>
       </c>
       <c r="D8" s="8">
         <v>3</v>
@@ -962,8 +1424,8 @@
         <v>8</v>
       </c>
       <c r="B9" s="5"/>
-      <c r="C9" s="5" t="s">
-        <v>9</v>
+      <c r="C9" s="3" t="s">
+        <v>97</v>
       </c>
       <c r="D9" s="8">
         <v>3</v>
@@ -975,11 +1437,11 @@
         <v>9</v>
       </c>
       <c r="B10" s="5"/>
-      <c r="C10" s="5" t="s">
-        <v>14</v>
+      <c r="C10" s="33" t="s">
+        <v>13</v>
       </c>
       <c r="D10" s="8">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E10" s="8"/>
     </row>
@@ -991,19 +1453,20 @@
       <c r="C11" s="5"/>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
+      <c r="G11" s="5"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="8">
+      <c r="A12" s="29">
         <v>11</v>
       </c>
-      <c r="B12" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C12" s="5"/>
-      <c r="D12" s="8">
+      <c r="B12" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" s="30"/>
+      <c r="D12" s="29">
         <v>4</v>
       </c>
-      <c r="E12" s="8">
+      <c r="E12" s="29">
         <v>3</v>
       </c>
     </row>
@@ -1011,8 +1474,8 @@
       <c r="A13" s="8">
         <v>12</v>
       </c>
-      <c r="B13" s="5" t="s">
-        <v>13</v>
+      <c r="B13" s="34" t="s">
+        <v>12</v>
       </c>
       <c r="C13" s="5"/>
       <c r="D13" s="8">
@@ -1025,7 +1488,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C14" s="5"/>
       <c r="D14" s="8">
@@ -1034,24 +1497,24 @@
       <c r="E14" s="8"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="8">
+      <c r="A15" s="29">
         <v>14</v>
       </c>
-      <c r="B15" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="C15" s="5"/>
-      <c r="D15" s="8">
-        <v>4</v>
-      </c>
-      <c r="E15" s="8"/>
+      <c r="B15" s="30" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" s="30"/>
+      <c r="D15" s="29">
+        <v>5</v>
+      </c>
+      <c r="E15" s="29"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="8">
         <v>15</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C16" s="5"/>
       <c r="D16" s="8">
@@ -1064,7 +1527,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C17" s="5"/>
       <c r="D17" s="8">
@@ -1077,7 +1540,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C18" s="5"/>
       <c r="D18" s="8">
@@ -1086,37 +1549,37 @@
       <c r="E18" s="8"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="8">
+      <c r="A19" s="31">
         <v>18</v>
       </c>
-      <c r="B19" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C19" s="5"/>
-      <c r="D19" s="8">
-        <v>2</v>
-      </c>
-      <c r="E19" s="8"/>
+      <c r="B19" s="32" t="s">
+        <v>103</v>
+      </c>
+      <c r="C19" s="32"/>
+      <c r="D19" s="31">
+        <v>5</v>
+      </c>
+      <c r="E19" s="31"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="8">
+      <c r="A20" s="29">
         <v>19</v>
       </c>
-      <c r="B20" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C20" s="5"/>
-      <c r="D20" s="8">
-        <v>3</v>
-      </c>
-      <c r="E20" s="8"/>
+      <c r="B20" s="30" t="s">
+        <v>16</v>
+      </c>
+      <c r="C20" s="30"/>
+      <c r="D20" s="29">
+        <v>4</v>
+      </c>
+      <c r="E20" s="29"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="8">
         <v>20</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C21" s="5"/>
       <c r="D21" s="8">
@@ -1129,7 +1592,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C22" s="5"/>
       <c r="D22" s="8">
@@ -1142,7 +1605,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C23" s="5"/>
       <c r="D23" s="8">
@@ -1155,7 +1618,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C24" s="5"/>
       <c r="D24" s="8">
@@ -1168,7 +1631,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C25" s="5"/>
       <c r="D25" s="8">
@@ -1181,7 +1644,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C26" s="5"/>
       <c r="D26" s="8">
@@ -1194,7 +1657,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C27" s="5"/>
       <c r="D27" s="8">
@@ -1207,7 +1670,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C28" s="5"/>
       <c r="D28" s="8">
@@ -1220,7 +1683,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C29" s="5"/>
       <c r="D29" s="8">
@@ -1229,8 +1692,12 @@
       <c r="E29" s="8"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" s="9"/>
-      <c r="B30" s="6"/>
+      <c r="A30" s="9">
+        <v>29</v>
+      </c>
+      <c r="B30" s="6" t="s">
+        <v>104</v>
+      </c>
       <c r="C30" s="6"/>
       <c r="D30" s="9"/>
       <c r="E30" s="9"/>
@@ -1271,14 +1738,35 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC45347D-A89D-4FE0-82FC-E88BC23C16B6}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L24" sqref="L24"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="20.140625" customWidth="1"/>
+    <col min="2" max="2" width="29.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>130</v>
+      </c>
+      <c r="B1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>132</v>
+      </c>
+      <c r="B2" t="s">
+        <v>133</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1375,7 +1863,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="P19" sqref="P19"/>
+      <selection activeCell="R24" sqref="R24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1404,16 +1892,16 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="24" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="B1" s="24" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="C1" s="24" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="D1" s="24" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="E1" s="23"/>
       <c r="F1" s="23"/>
@@ -1423,10 +1911,10 @@
     </row>
     <row r="3" spans="1:6" ht="90" x14ac:dyDescent="0.25">
       <c r="A3" s="26" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="B3" s="22" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -1532,12 +2020,324 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA8A2589-ADF1-4F61-9F1B-A76F931E59E4}">
+  <dimension ref="A1:C27"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="61.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="37" t="s">
+        <v>145</v>
+      </c>
+      <c r="B2" s="37" t="s">
+        <v>146</v>
+      </c>
+      <c r="C2" s="37" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="36" t="s">
+        <v>148</v>
+      </c>
+      <c r="B3" s="36" t="s">
+        <v>135</v>
+      </c>
+      <c r="C3" s="36" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="36" t="s">
+        <v>149</v>
+      </c>
+      <c r="B4" s="36" t="s">
+        <v>137</v>
+      </c>
+      <c r="C4" s="36" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="36" t="s">
+        <v>150</v>
+      </c>
+      <c r="B5" s="36" t="s">
+        <v>139</v>
+      </c>
+      <c r="C5" s="36" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="36" t="s">
+        <v>151</v>
+      </c>
+      <c r="B6" s="36" t="s">
+        <v>141</v>
+      </c>
+      <c r="C6" s="36" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="36" t="s">
+        <v>152</v>
+      </c>
+      <c r="B7" s="36" t="s">
+        <v>153</v>
+      </c>
+      <c r="C7" s="36" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="36" t="s">
+        <v>155</v>
+      </c>
+      <c r="B8" s="36" t="s">
+        <v>156</v>
+      </c>
+      <c r="C8" s="36" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="36" t="s">
+        <v>158</v>
+      </c>
+      <c r="B9" s="36" t="s">
+        <v>143</v>
+      </c>
+      <c r="C9" s="36" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A10" s="36" t="s">
+        <v>159</v>
+      </c>
+      <c r="B10" s="36" t="s">
+        <v>160</v>
+      </c>
+      <c r="C10" s="36" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="36" t="s">
+        <v>162</v>
+      </c>
+      <c r="B11" s="36" t="s">
+        <v>163</v>
+      </c>
+      <c r="C11" s="36" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="36" t="s">
+        <v>165</v>
+      </c>
+      <c r="B12" s="36" t="s">
+        <v>166</v>
+      </c>
+      <c r="C12" s="36" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="36" t="s">
+        <v>168</v>
+      </c>
+      <c r="B13" s="36" t="s">
+        <v>169</v>
+      </c>
+      <c r="C13" s="36" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="36" t="s">
+        <v>171</v>
+      </c>
+      <c r="B14" s="36" t="s">
+        <v>172</v>
+      </c>
+      <c r="C14" s="36" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="36" t="s">
+        <v>174</v>
+      </c>
+      <c r="B15" s="36" t="s">
+        <v>175</v>
+      </c>
+      <c r="C15" s="36" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="36" t="s">
+        <v>177</v>
+      </c>
+      <c r="B16" s="36" t="s">
+        <v>178</v>
+      </c>
+      <c r="C16" s="36" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A17" s="36" t="s">
+        <v>180</v>
+      </c>
+      <c r="B17" s="36" t="s">
+        <v>181</v>
+      </c>
+      <c r="C17" s="36" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A18" s="36" t="s">
+        <v>183</v>
+      </c>
+      <c r="B18" s="36" t="s">
+        <v>184</v>
+      </c>
+      <c r="C18" s="36" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="36" t="s">
+        <v>186</v>
+      </c>
+      <c r="B19" s="36" t="s">
+        <v>187</v>
+      </c>
+      <c r="C19" s="36" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="36" t="s">
+        <v>178</v>
+      </c>
+      <c r="B20" s="36" t="s">
+        <v>189</v>
+      </c>
+      <c r="C20" s="36" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="36" t="s">
+        <v>172</v>
+      </c>
+      <c r="B21" s="36" t="s">
+        <v>191</v>
+      </c>
+      <c r="C21" s="36" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="90" x14ac:dyDescent="0.25">
+      <c r="A22" s="36" t="s">
+        <v>193</v>
+      </c>
+      <c r="B22" s="36" t="s">
+        <v>194</v>
+      </c>
+      <c r="C22" s="36" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="36" t="s">
+        <v>196</v>
+      </c>
+      <c r="B23" s="36" t="s">
+        <v>197</v>
+      </c>
+      <c r="C23" s="36" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A24" s="36" t="s">
+        <v>199</v>
+      </c>
+      <c r="B24" s="36" t="s">
+        <v>200</v>
+      </c>
+      <c r="C24" s="36" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A25" s="36" t="s">
+        <v>202</v>
+      </c>
+      <c r="B25" s="36" t="s">
+        <v>203</v>
+      </c>
+      <c r="C25" s="36" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A26" s="36" t="s">
+        <v>205</v>
+      </c>
+      <c r="B26" s="36" t="s">
+        <v>206</v>
+      </c>
+      <c r="C26" s="36" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="36" t="s">
+        <v>208</v>
+      </c>
+      <c r="B27" s="36" t="s">
+        <v>209</v>
+      </c>
+      <c r="C27" s="36" t="s">
+        <v>210</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7503663F-257B-46E7-AF0F-FF7AA4F20516}">
-  <dimension ref="A1:H71"/>
+  <dimension ref="A1:H86"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C39" sqref="C39"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B89" sqref="B86:B89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1552,356 +2352,423 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="24" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="B1" s="24" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="C1" s="24" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="D1" s="24" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="G1" s="21"/>
       <c r="H1" s="21"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="26" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="G2" s="21"/>
       <c r="H2" s="21"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A3" s="26"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B3" s="22" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A4" s="26" t="s">
-        <v>29</v>
-      </c>
-      <c r="B4" s="26"/>
+        <v>100</v>
+      </c>
+      <c r="B4" s="27" t="s">
+        <v>99</v>
+      </c>
       <c r="C4" s="26"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="26"/>
-      <c r="B5" s="26"/>
+    <row r="5" spans="1:8" ht="180" x14ac:dyDescent="0.25">
+      <c r="A5" s="26" t="s">
+        <v>82</v>
+      </c>
+      <c r="B5" s="27" t="s">
+        <v>101</v>
+      </c>
       <c r="C5" s="26"/>
+      <c r="D5" s="25" t="s">
+        <v>83</v>
+      </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="26" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B6" s="26"/>
       <c r="C6" s="26"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="26"/>
-      <c r="B7" s="26"/>
-      <c r="C7" s="26"/>
-    </row>
-    <row r="8" spans="1:8" ht="180" x14ac:dyDescent="0.25">
-      <c r="A8" s="26" t="s">
-        <v>86</v>
-      </c>
-      <c r="B8" s="27" t="s">
+    <row r="7" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="B7" s="22" t="s">
+        <v>96</v>
+      </c>
+      <c r="C7" s="28" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="A8" s="22" t="s">
+        <v>63</v>
+      </c>
+      <c r="B8" s="22" t="s">
         <v>95</v>
       </c>
-      <c r="C8" s="26"/>
-      <c r="D8" s="25" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="26" t="s">
-        <v>31</v>
-      </c>
-      <c r="B9" s="26"/>
-      <c r="C9" s="26"/>
-    </row>
-    <row r="10" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A10" s="22" t="s">
-        <v>66</v>
-      </c>
-      <c r="B10" s="22" t="s">
-        <v>101</v>
-      </c>
-      <c r="C10" s="28" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="60" x14ac:dyDescent="0.25">
-      <c r="A11" s="22" t="s">
-        <v>67</v>
-      </c>
-      <c r="B11" s="22" t="s">
-        <v>100</v>
-      </c>
-      <c r="C11" s="28" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="165" x14ac:dyDescent="0.25">
+      <c r="C8" s="28" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="120" x14ac:dyDescent="0.25">
+      <c r="A9" s="22" t="s">
+        <v>91</v>
+      </c>
+      <c r="B9" s="22" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="B11" s="26"/>
+      <c r="C11" s="26"/>
+    </row>
+    <row r="12" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="22" t="s">
-        <v>96</v>
-      </c>
-      <c r="B12" s="22" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="B14" s="26"/>
-      <c r="C14" s="26"/>
-    </row>
-    <row r="15" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="22" t="s">
-        <v>36</v>
-      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="22" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="26" t="s">
+        <v>29</v>
+      </c>
+      <c r="B15" s="26"/>
+      <c r="C15" s="26"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="22" t="s">
-        <v>76</v>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="22" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="26" t="s">
+      <c r="A18" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="B18" s="26"/>
-      <c r="C18" s="26"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="22" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" s="22" t="s">
-        <v>35</v>
+        <v>56</v>
+      </c>
+      <c r="D20" s="25" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="22" t="s">
-        <v>37</v>
+        <v>64</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="22" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="22" t="s">
-        <v>60</v>
-      </c>
-      <c r="D23" s="25" t="s">
-        <v>73</v>
+        <v>57</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="22" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="22" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="22" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="22" t="s">
-        <v>62</v>
-      </c>
+      <c r="A27" s="26" t="s">
+        <v>35</v>
+      </c>
+      <c r="B27" s="26"/>
+      <c r="C27" s="26"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="22" t="s">
-        <v>64</v>
+        <v>37</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="22" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="26" t="s">
+      <c r="A30" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="B30" s="26"/>
-      <c r="C30" s="26"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="22" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="22" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="22" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="22" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="22" t="s">
-        <v>40</v>
+        <v>59</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="22" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" s="22" t="s">
-        <v>46</v>
+        <v>43</v>
+      </c>
+      <c r="C36" s="28" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" s="22" t="s">
-        <v>63</v>
-      </c>
+      <c r="A38" s="26" t="s">
+        <v>44</v>
+      </c>
+      <c r="B38" s="26"/>
+      <c r="C38" s="26"/>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="22" t="s">
-        <v>47</v>
-      </c>
-      <c r="C39" s="28" t="s">
-        <v>91</v>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" s="22" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" s="26" t="s">
-        <v>48</v>
-      </c>
-      <c r="B41" s="26"/>
-      <c r="C41" s="26"/>
+      <c r="A41" s="22" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="22" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="22" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="22" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="22" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A46" s="22" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="22" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A48" s="22" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" s="26" t="s">
+        <v>46</v>
+      </c>
+      <c r="B49" s="26"/>
+      <c r="C49" s="26"/>
+    </row>
+    <row r="50" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A50" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="D50" s="25" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51" s="22" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="22" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A52" s="26" t="s">
-        <v>50</v>
-      </c>
-      <c r="B52" s="26"/>
-      <c r="C52" s="26"/>
-    </row>
-    <row r="53" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A53" s="22" t="s">
-        <v>51</v>
-      </c>
-      <c r="D53" s="25" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A54" s="22" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="55" spans="1:4" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A55" s="22" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+        <v>105</v>
+      </c>
+      <c r="B55" s="22" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" ht="345" x14ac:dyDescent="0.25">
+      <c r="A57" s="22" t="s">
+        <v>107</v>
+      </c>
+      <c r="B57" s="22" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" ht="120" x14ac:dyDescent="0.25">
+      <c r="A58" s="22" t="s">
+        <v>109</v>
+      </c>
+      <c r="B58" s="22" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" ht="90" x14ac:dyDescent="0.25">
+      <c r="A59" s="22" t="s">
+        <v>111</v>
+      </c>
+      <c r="B59" s="22" t="s">
+        <v>112</v>
+      </c>
+      <c r="D59" s="25" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" ht="120" x14ac:dyDescent="0.25">
+      <c r="A60" s="22" t="s">
+        <v>113</v>
+      </c>
+      <c r="B60" s="22" t="s">
+        <v>114</v>
+      </c>
+      <c r="D60" s="25" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A61" s="22" t="s">
+        <v>115</v>
+      </c>
+      <c r="B61" s="22" t="s">
+        <v>116</v>
+      </c>
+      <c r="D61" s="25" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" ht="111" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="22" t="s">
+        <v>117</v>
+      </c>
+      <c r="B62" s="25" t="s">
+        <v>118</v>
+      </c>
+      <c r="C62" s="25"/>
       <c r="D62" s="25" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D63" s="25" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="D64" s="25" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="65" spans="2:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:4" ht="70.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="22" t="s">
+        <v>119</v>
+      </c>
+      <c r="B63" s="25" t="s">
+        <v>120</v>
+      </c>
+      <c r="C63" s="25"/>
+    </row>
+    <row r="64" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B64" s="25"/>
+      <c r="C64" s="25"/>
+    </row>
+    <row r="65" spans="2:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B65" s="25"/>
       <c r="C65" s="25"/>
-      <c r="D65" s="25" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="66" spans="2:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B66" s="25"/>
-      <c r="C66" s="25"/>
-    </row>
-    <row r="67" spans="2:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B67" s="25"/>
-      <c r="C67" s="25"/>
-    </row>
-    <row r="68" spans="2:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B68" s="25"/>
-      <c r="C68" s="25"/>
-    </row>
-    <row r="69" spans="2:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="70" spans="2:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="71" spans="2:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    </row>
+    <row r="66" spans="2:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="67" spans="2:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="68" spans="2:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A82" s="22" t="s">
+        <v>121</v>
+      </c>
+      <c r="B82" s="22" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B83" s="22" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+      <c r="B84" s="22" t="s">
+        <v>124</v>
+      </c>
+      <c r="C84" s="22" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" ht="240" x14ac:dyDescent="0.25">
+      <c r="C86" s="22" t="s">
+        <v>126</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D64" r:id="rId1" location="spring-core" xr:uid="{0B604CE3-D5F3-44E3-953C-99312C49E296}"/>
-    <hyperlink ref="D63" r:id="rId2" xr:uid="{806900A7-86F3-48E1-8FCE-8CC5022CCB00}"/>
-    <hyperlink ref="D62" r:id="rId3" xr:uid="{FC24F1B1-0FE2-4FA4-B59E-D24326296620}"/>
-    <hyperlink ref="D23" r:id="rId4" xr:uid="{8D6CC6A8-80C7-4EEB-BE77-B942C6B8DCD4}"/>
-    <hyperlink ref="D65" r:id="rId5" location="DI" xr:uid="{C2D27C71-3E16-4FBD-85BF-3F3931F03003}"/>
-    <hyperlink ref="D8" r:id="rId6" xr:uid="{C5ABD71A-42BC-43ED-85CF-D0346856C9BD}"/>
-    <hyperlink ref="D53" r:id="rId7" xr:uid="{16AB99D1-E247-4F6C-8859-21B4A7B18D90}"/>
+    <hyperlink ref="D61" r:id="rId1" location="spring-core" xr:uid="{0B604CE3-D5F3-44E3-953C-99312C49E296}"/>
+    <hyperlink ref="D60" r:id="rId2" xr:uid="{806900A7-86F3-48E1-8FCE-8CC5022CCB00}"/>
+    <hyperlink ref="D59" r:id="rId3" xr:uid="{FC24F1B1-0FE2-4FA4-B59E-D24326296620}"/>
+    <hyperlink ref="D20" r:id="rId4" xr:uid="{8D6CC6A8-80C7-4EEB-BE77-B942C6B8DCD4}"/>
+    <hyperlink ref="D62" r:id="rId5" location="DI" xr:uid="{C2D27C71-3E16-4FBD-85BF-3F3931F03003}"/>
+    <hyperlink ref="D5" r:id="rId6" xr:uid="{C5ABD71A-42BC-43ED-85CF-D0346856C9BD}"/>
+    <hyperlink ref="D50" r:id="rId7" xr:uid="{16AB99D1-E247-4F6C-8859-21B4A7B18D90}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId8"/>
 </worksheet>
 </file>
 
@@ -1943,7 +2810,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="17" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
     </row>
   </sheetData>
@@ -1999,13 +2866,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -2142,7 +3009,7 @@
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="B61" s="1" t="s">
         <v>0</v>
